--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>ad5fc8b706e03d9acdcdb39ed8eb777ecdacd6b6</t>
+    <t>f9c7cd587ea5dbdcac12cdfd4b3eb75e0078bd20</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,8 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add test cases for Windows
-</t>
+    <t>Create index.html</t>
   </si>
   <si>
     <t/>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>f9c7cd587ea5dbdcac12cdfd4b3eb75e0078bd20</t>
+    <t>5f4c119493ac0b61b0e7d7a6e8aa7792143a27e8</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t>Create index.html</t>
+    <t>Update config.properties</t>
   </si>
   <si>
     <t/>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>5f4c119493ac0b61b0e7d7a6e8aa7792143a27e8</t>
+    <t>663b0b0eda54f28a7bc5d971bae635f07715d49d</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,13 +113,11 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t>Update config.properties</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Not executed</t>
+    <t xml:space="preserve">- Upload automation test result for windows
+</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Connect to RemoteWebDriver at http://127.0.0.1:4444/wd/hub</t>
@@ -131,10 +129,13 @@
     <t>Connect to RemoteWebDriver successfully</t>
   </si>
   <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Navigate to https://bonigarcia.org/webdrivermanager/</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Navigate to https://bonigarcia.org/webdrivermanager/</t>
   </si>
   <si>
     <t>Navigate to https://bonigarcia.org/webdrivermanager/ successfully (Title contains "WebDriverManager")</t>
@@ -692,19 +693,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="12" t="n">
-        <v>44421.59229166667</v>
+        <v>44551.59229166667</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,19 +741,19 @@
         <v>1.0</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -760,19 +761,19 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>663b0b0eda54f28a7bc5d971bae635f07715d49d</t>
+    <t>786fb496f760e8474ef7ccecb15c8a42b8cdefe3</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload automation test result for windows
+    <t xml:space="preserve">- Upload window manual test results
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>786fb496f760e8474ef7ccecb15c8a42b8cdefe3</t>
+    <t>4d7fb175c595a42fe0abca7a65c400731b36834a</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload window manual test results
+    <t xml:space="preserve">- Update library
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>4d7fb175c595a42fe0abca7a65c400731b36834a</t>
+    <t>32630470579b9060070e31993b705daf4d6df709</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Update library
+    <t xml:space="preserve">- Add windows manual test cases
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>32630470579b9060070e31993b705daf4d6df709</t>
+    <t>0c8c98ee0733418218920e89621b763eddbbd0ae</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add windows manual test cases
+    <t xml:space="preserve">- Upload more window manual test results
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>0c8c98ee0733418218920e89621b763eddbbd0ae</t>
+    <t>eb5c5ec6364d8a61cdca45c2d468b2ffad8d1f2e</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload more window manual test results
+    <t xml:space="preserve">- Add basic windows automation test cases
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>eb5c5ec6364d8a61cdca45c2d468b2ffad8d1f2e</t>
+    <t>b4c1dabc1d763280ec45ac243bb8324b89e822aa</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add basic windows automation test cases
+    <t xml:space="preserve">- upload window automation basic test results
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>b4c1dabc1d763280ec45ac243bb8324b89e822aa</t>
+    <t>8e42920a300cd254763b6c7194cbbe494957a259</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- upload window automation basic test results
+    <t xml:space="preserve">- Upload test case for MAC OS
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>8e42920a300cd254763b6c7194cbbe494957a259</t>
+    <t>458d1ca18dea29c46eed82ba24d949e280688bae</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload test case for MAC OS
+    <t xml:space="preserve">- Upload test results for MAC OS
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>458d1ca18dea29c46eed82ba24d949e280688bae</t>
+    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Upload test results for MAC OS
+    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>c2be794f7301df1bd8946c84b9a30a47e634e8da</t>
+    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">Merge branch 'main' of https://github.com/lgjp-open-source/TestManagementSample into main
+    <t xml:space="preserve">- Add Linux test results
 </t>
   </si>
   <si>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>60fae1ae809c88f7459fa093ef91050d1d7896ba</t>
+    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,8 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t xml:space="preserve">- Add Linux test results
-</t>
+    <t>Delete advance.md</t>
   </si>
   <si>
     <t>Pass</t>

--- a/Reports/Windows/automation/remote/RemoteTest.xlsx
+++ b/Reports/Windows/automation/remote/RemoteTest.xlsx
@@ -103,7 +103,7 @@
     <t>12/21/21 15:55:36</t>
   </si>
   <si>
-    <t>dc6a09580669a478296c8f6d5f682cf9d201d974</t>
+    <t>76ebaf2b7f0ed251d3b47f8a6ef279cd00691a08</t>
   </si>
   <si>
     <t>The test machine must have internet connection
@@ -113,7 +113,7 @@
     <t>Chrome browser on device must close successfully.</t>
   </si>
   <si>
-    <t>Delete advance.md</t>
+    <t>Update README.md</t>
   </si>
   <si>
     <t>Pass</t>
